--- a/data/metadata/P11_2/2023-04-25_P11_2-mapping.xlsx
+++ b/data/metadata/P11_2/2023-04-25_P11_2-mapping.xlsx
@@ -238,7 +238,7 @@
     <t xml:space="preserve">MFD10232</t>
   </si>
   <si>
-    <t xml:space="preserve">C18EB1</t>
+    <t xml:space="preserve">C19EB1</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10233</t>
@@ -1101,11 +1101,11 @@
   </sheetPr>
   <dimension ref="A1:C158"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A158" activeCellId="0" sqref="A158"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21"/>
